--- a/excelDemoTest.xlsx
+++ b/excelDemoTest.xlsx
@@ -1,35 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfaf512e40546785/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{ABC63695-0609-44FF-9545-BF7A915EE286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F77D90D2-EFC7-4315-929C-0C6839B0276B}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92234A69-CCDC-42A7-AC3F-D9E0632E3715}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -54,7 +34,7 @@
     <t>Bob</t>
   </si>
   <si>
-    <t>I'm good, Alice. How about you?</t>
+    <t>I'm great, Alice. Thanks for asking!</t>
   </si>
   <si>
     <t>It's a lovely day, isn't it?</t>
@@ -66,22 +46,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -425,20 +405,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26885115-1380-417F-9675-ACA20980F60E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="10.77734375" customWidth="1"/>
     <col min="3" max="3" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" ht="28.8" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -460,7 +440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -471,7 +451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -482,7 +462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
